--- a/InterviewTest/output/230328/230328_failed.xlsx
+++ b/InterviewTest/output/230328/230328_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230328\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE54ED1-909D-49B9-B03F-6665B1AFC504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135509F-EF0A-4126-8BCE-B23714667750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  ANH_CH: 10.7</t>
+    <t>Example:  ANH_CH: 17.9</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230328/230328_failed.xlsx
+++ b/InterviewTest/output/230328/230328_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230328\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230328\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135509F-EF0A-4126-8BCE-B23714667750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020BCD8C-E277-4DD9-BBF3-B3C7DD441295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="33870" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230328/230328_failed.xlsx
+++ b/InterviewTest/output/230328/230328_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230328\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230328\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020BCD8C-E277-4DD9-BBF3-B3C7DD441295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA68A75-48B4-479B-B0C9-AFC3A7233865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
